--- a/Statistics/S8_L49/3.15.Confidence-intervals.Two-means.Independent-samples-Part-2-exercise.xlsx
+++ b/Statistics/S8_L49/3.15.Confidence-intervals.Two-means.Independent-samples-Part-2-exercise.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD337E4-3FDE-428F-9124-2ADC468C531F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CI, indep, var unkwn" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>LA apples</t>
   </si>
@@ -49,14 +50,48 @@
   </si>
   <si>
     <t>Compare the result with the 95% confidence interval from the lesson</t>
+  </si>
+  <si>
+    <t>T stat</t>
+  </si>
+  <si>
+    <t>Mean NY</t>
+  </si>
+  <si>
+    <t>Mean LA</t>
+  </si>
+  <si>
+    <t>Std NY</t>
+  </si>
+  <si>
+    <t>STD LA</t>
+  </si>
+  <si>
+    <t>Sample NY</t>
+  </si>
+  <si>
+    <t>SAMPLE LA</t>
+  </si>
+  <si>
+    <t>Pool Var</t>
+  </si>
+  <si>
+    <t>Pool STD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOW </t>
+  </si>
+  <si>
+    <t>HIGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -137,7 +172,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -147,16 +182,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -437,38 +472,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -476,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -484,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -492,10 +530,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="9" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -505,179 +543,185 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>3.8</v>
       </c>
       <c r="C10" s="5">
         <v>3.02</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>3.76</v>
       </c>
       <c r="C11" s="5">
         <v>3.22</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>3.87</v>
       </c>
       <c r="C12" s="5">
         <v>3.24</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="E12" s="2"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>3.99</v>
       </c>
       <c r="C13" s="5">
         <v>3.02</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>4.0199999999999996</v>
       </c>
       <c r="C14" s="5">
         <v>3.06</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>4.25</v>
       </c>
       <c r="C15" s="5">
         <v>3.15</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E15" s="2"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="11">
+        <f>AVERAGE(B10:B19)</f>
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="J15" s="12">
+        <f>(H15-H16) - H14*SQRT(F22/H19 +F22/H20)</f>
+        <v>0.50958687669838643</v>
+      </c>
+      <c r="K15" s="12">
+        <f>(H15-H16) + H14*SQRT(F22/H19 +F22/H20)</f>
+        <v>0.88241312330161303</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>4.13</v>
       </c>
       <c r="C16" s="5">
         <v>3.81</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:14" ht="12" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="11">
+        <f>AVERAGE(C10:C17)</f>
+        <v>3.2450000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>3.98</v>
       </c>
       <c r="C17" s="5">
         <v>3.44</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1">
+        <f xml:space="preserve"> _xlfn.STDEV.S(B10:B19)</f>
+        <v>0.18393537512458616</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>3.99</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1">
+        <f xml:space="preserve"> _xlfn.STDEV.S(C10:C17)</f>
+        <v>0.26790190102242384</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>3.62</v>
       </c>
       <c r="C19" s="6"/>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
+        <f>(H17*H17*9 + H18*H18*7) /16</f>
+        <v>5.0430625000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <f>SQRT(F22)</f>
+        <v>0.22456764014434494</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
